--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="963">
   <si>
     <t>anchor score</t>
   </si>
@@ -94,808 +94,808 @@
     <t>died</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>unfair</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>sudden</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>canadians</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>hay</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>unfair</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>rob</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>sudden</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>canadians</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>rather</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>looking</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>hay</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>pan</t>
   </si>
   <si>
     <t>3</t>
@@ -3268,10 +3268,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3329,7 +3329,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03011580794833689</v>
+        <v>0.03052898980977221</v>
       </c>
       <c r="C3">
         <v>254</v>
@@ -3379,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02890583966020255</v>
+        <v>0.02930242103891376</v>
       </c>
       <c r="C4">
         <v>234</v>
@@ -3429,7 +3429,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01224622701208508</v>
+        <v>0.01241424239062293</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -3450,7 +3450,7 @@
         <v>2225</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>0.009252582719482084</v>
@@ -3479,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01164848537997828</v>
+        <v>0.01180829988272907</v>
       </c>
       <c r="C6">
         <v>38</v>
@@ -3500,7 +3500,7 @@
         <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>0.009028825674675769</v>
@@ -3529,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01117922463141349</v>
+        <v>0.01133260098613506</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3550,7 +3550,7 @@
         <v>1558</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>0.008963869250747233</v>
@@ -3579,7 +3579,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.010349950863635</v>
+        <v>0.01049194977566608</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -3600,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0.008665541928126885</v>
@@ -3629,7 +3629,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009257277477948203</v>
+        <v>0.009384285165961206</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -3650,7 +3650,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="K9">
         <v>0.007981001879212728</v>
@@ -3659,19 +3659,19 @@
         <v>218</v>
       </c>
       <c r="M9">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="N9">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3679,7 +3679,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008659390164195235</v>
+        <v>0.008778194977702967</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -3700,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>0.007606095279447534</v>
@@ -3729,7 +3729,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008659390164195235</v>
+        <v>0.008778194977702967</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -3750,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>0.00748996486782449</v>
@@ -3779,7 +3779,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008450699492927941</v>
+        <v>0.008566641119096774</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -3800,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>0.007352161366745026</v>
@@ -3829,7 +3829,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008450699492927941</v>
+        <v>0.008566641119096774</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3850,7 +3850,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="K13">
         <v>0.007109715423635482</v>
@@ -3859,19 +3859,19 @@
         <v>173</v>
       </c>
       <c r="M13">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="N13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3879,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3900,7 +3900,7 @@
         <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>0.00696439203710512</v>
@@ -3929,7 +3929,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3950,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <v>0.006686131004483626</v>
@@ -3979,7 +3979,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -4000,7 +4000,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>0.00644129720874123</v>
@@ -4029,7 +4029,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -4050,7 +4050,7 @@
         <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K17">
         <v>0.006186782011155548</v>
@@ -4079,7 +4079,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00779115996702716</v>
+        <v>0.0078980528647186</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K18">
         <v>0.006067565018569403</v>
@@ -4129,7 +4129,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007558535409443951</v>
+        <v>0.007662236752458103</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -4150,7 +4150,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K19">
         <v>0.005846851950954784</v>
@@ -4179,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007558535409443951</v>
+        <v>0.007662236752458103</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -4200,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K20">
         <v>0.005746036600752832</v>
@@ -4229,28 +4229,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007558535409443951</v>
+        <v>0.00741892883424216</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>0.005720555159894274</v>
@@ -4279,28 +4279,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007318520440623871</v>
+        <v>0.007167366186011409</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>0.005669248696061648</v>
@@ -4329,28 +4329,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00707036246198459</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K23">
         <v>0.0056434205494539</v>
@@ -4379,7 +4379,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006813171746540091</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -4397,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K24">
         <v>0.005378321550448339</v>
@@ -4429,7 +4429,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006813171746540091</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -4447,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K25">
         <v>0.005323717887005351</v>
@@ -4479,7 +4479,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006813171746540091</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K26">
         <v>0.004894812860922106</v>
@@ -4529,13 +4529,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006813171746540091</v>
+        <v>0.006635691677439494</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4547,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K27">
         <v>0.004864874886741723</v>
@@ -4579,28 +4579,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006545883679982675</v>
+        <v>0.006635691677439494</v>
       </c>
       <c r="C28">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>632</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K28">
         <v>0.004804439312141843</v>
@@ -4629,28 +4629,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006545883679982675</v>
+        <v>0.006635691677439494</v>
       </c>
       <c r="C29">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="E29">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F29">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>632</v>
+        <v>91</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K29">
         <v>0.004681228042390307</v>
@@ -4679,28 +4679,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006545883679982675</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K30">
         <v>0.004681228042390307</v>
@@ -4729,7 +4729,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K31">
         <v>0.004649915128802163</v>
@@ -4779,7 +4779,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K32">
         <v>0.004554684935938904</v>
@@ -4829,7 +4829,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C33">
         <v>11</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K33">
         <v>0.004424524126556004</v>
@@ -4879,28 +4879,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C34">
         <v>11</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>690</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K34">
         <v>0.004357986138904054</v>
@@ -4929,28 +4929,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="E35">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F35">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>690</v>
+        <v>226</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K35">
         <v>0.004290416369920706</v>
@@ -4979,28 +4979,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006267206479435228</v>
+        <v>0.006057530027304843</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K36">
         <v>0.003972153711665776</v>
@@ -5029,28 +5029,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005975546917219065</v>
+        <v>0.006057530027304843</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>605</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K37">
         <v>0.003897901300636522</v>
@@ -5079,28 +5079,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005975546917219065</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>605</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K38">
         <v>0.003744982433912245</v>
@@ -5129,28 +5129,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005975546917219065</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K39">
         <v>0.003666131867611281</v>
@@ -5179,7 +5179,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>294</v>
@@ -5229,7 +5229,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -5247,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K41">
         <v>0.003503110296796602</v>
@@ -5279,28 +5279,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K42">
         <v>0.003503110296796602</v>
@@ -5329,28 +5329,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C43">
         <v>9</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2917</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K43">
         <v>0.003461155366597146</v>
@@ -5379,25 +5379,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C44">
         <v>9</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E44">
-        <v>0.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F44">
-        <v>0.9</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>295</v>
@@ -5429,25 +5429,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005668901557082964</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>284</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2917</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>296</v>
@@ -5479,28 +5479,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005668901557082964</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>499</v>
+        <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K46">
         <v>0.003375681547795633</v>
@@ -5529,7 +5529,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>297</v>
@@ -5579,7 +5579,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C48">
         <v>8</v>
@@ -5597,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K48">
         <v>0.003287986519517927</v>
@@ -5629,7 +5629,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -5647,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K49">
         <v>0.003243249924494482</v>
@@ -5679,7 +5679,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -5697,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K50">
         <v>0.003197887551640194</v>
@@ -5729,28 +5729,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C51">
         <v>8</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K51">
         <v>0.003151872382114663</v>
@@ -5779,13 +5779,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005344691643856456</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K52">
         <v>0.003105175394939714</v>
@@ -5829,25 +5829,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005344691643856456</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>298</v>
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>299</v>
@@ -5929,7 +5929,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -5947,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K55">
         <v>0.002960668572120924</v>
@@ -5979,7 +5979,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>300</v>
@@ -6029,7 +6029,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -6047,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K57">
         <v>0.002960668572120924</v>
@@ -6079,28 +6079,28 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>33</v>
+        <v>1079</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K58">
         <v>0.002910905892354887</v>
@@ -6129,28 +6129,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K59">
         <v>0.002910905892354887</v>
@@ -6179,28 +6179,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004999501242316117</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E60">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1079</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K60">
         <v>0.002860277579947137</v>
@@ -6229,28 +6229,28 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004999501242316117</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K61">
         <v>0.002860277579947137</v>
@@ -6279,7 +6279,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>301</v>
@@ -6329,7 +6329,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -6347,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K63">
         <v>0.002808736825434184</v>
@@ -6379,7 +6379,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>302</v>
@@ -6429,7 +6429,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>303</v>
@@ -6479,7 +6479,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -6497,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K66">
         <v>0.002702708270412068</v>
@@ -6529,7 +6529,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K67">
         <v>0.002702708270412068</v>
@@ -6579,28 +6579,28 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C68">
         <v>6</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K68">
         <v>0.002702708270412068</v>
@@ -6629,25 +6629,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C69">
         <v>6</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>304</v>
@@ -6679,28 +6679,28 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C70">
         <v>6</v>
       </c>
       <c r="D70">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="E70">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="F70">
-        <v>0.02000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K70">
         <v>0.00264810247444385</v>
@@ -6729,28 +6729,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004628638738974102</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K71">
         <v>0.00264810247444385</v>
@@ -6779,25 +6779,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004628638738974102</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>305</v>
@@ -6829,7 +6829,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -6847,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K73">
         <v>0.002592346704312039</v>
@@ -6879,7 +6879,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -6897,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K74">
         <v>0.002535365093149178</v>
@@ -6929,7 +6929,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -6947,10 +6947,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K75">
         <v>0.002535365093149178</v>
@@ -6979,7 +6979,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>306</v>
@@ -7029,7 +7029,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -7047,10 +7047,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K77">
         <v>0.002535365093149178</v>
@@ -7079,7 +7079,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -7097,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K78">
         <v>0.002535365093149178</v>
@@ -7129,25 +7129,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>307</v>
@@ -7179,25 +7179,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>308</v>
@@ -7229,28 +7229,28 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
       <c r="D81">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E81">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F81">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K81">
         <v>0.002477073046109296</v>
@@ -7279,28 +7279,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00422534974646397</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K82">
         <v>0.002477073046109296</v>
@@ -7329,28 +7329,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00422534974646397</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K83">
         <v>0.002417375766396908</v>
@@ -7379,7 +7379,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -7397,10 +7397,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K84">
         <v>0.002417375766396908</v>
@@ -7429,28 +7429,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K85">
         <v>0.002417375766396908</v>
@@ -7479,28 +7479,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K86">
         <v>0.002417375766396908</v>
@@ -7529,25 +7529,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E87">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F87">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>309</v>
@@ -7579,28 +7579,28 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>30</v>
+        <v>950</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K88">
         <v>0.002293324014692806</v>
@@ -7629,28 +7629,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003779267704721975</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>4</v>
       </c>
-      <c r="D89">
-        <v>33</v>
-      </c>
-      <c r="E89">
-        <v>0.88</v>
-      </c>
-      <c r="F89">
-        <v>0.12</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>64</v>
-      </c>
       <c r="J89" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K89">
         <v>0.002293324014692806</v>
@@ -7679,28 +7679,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003779267704721975</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>950</v>
+        <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K90">
         <v>0.002293324014692806</v>
@@ -7729,7 +7729,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>310</v>
@@ -7779,7 +7779,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -7800,7 +7800,7 @@
         <v>3</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K92">
         <v>0.002228710334827876</v>
@@ -7829,7 +7829,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -7847,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K93">
         <v>0.002228710334827876</v>
@@ -7879,7 +7879,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>311</v>
@@ -7929,7 +7929,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>312</v>
@@ -7979,7 +7979,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>313</v>
@@ -8029,7 +8029,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>314</v>
@@ -8079,7 +8079,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>315</v>
@@ -8129,25 +8129,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>316</v>
@@ -8179,28 +8179,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K100">
         <v>0.002022521672856468</v>
@@ -8229,25 +8229,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E101">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F101">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>317</v>
@@ -8279,25 +8279,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
+        <v>25</v>
+      </c>
+      <c r="E102">
+        <v>0.88</v>
+      </c>
+      <c r="F102">
+        <v>0.12</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
         <v>113</v>
-      </c>
-      <c r="E102">
-        <v>0.97</v>
-      </c>
-      <c r="F102">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>195</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>318</v>
@@ -8329,25 +8329,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E103">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F103">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>319</v>
@@ -8379,25 +8379,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E104">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F104">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>320</v>
@@ -8429,28 +8429,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
       <c r="D105">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E105">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F105">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K105">
         <v>0.002022521672856468</v>
@@ -8479,25 +8479,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E106">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F106">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>321</v>
@@ -8529,7 +8529,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -8547,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>322</v>
@@ -8579,25 +8579,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E108">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F108">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>85</v>
+        <v>513</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>323</v>
@@ -8629,25 +8629,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E109">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F109">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>324</v>
@@ -8679,28 +8679,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
       <c r="D110">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E110">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="F110">
-        <v>0.08999999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>513</v>
+        <v>69</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K110">
         <v>0.001948950650318261</v>
@@ -8729,13 +8729,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E111">
         <v>0.97</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>325</v>
@@ -8779,25 +8779,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003272941839991337</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>326</v>
@@ -8829,25 +8829,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003272941839991337</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>327</v>
@@ -8879,7 +8879,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>328</v>
@@ -8929,7 +8929,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K115">
         <v>0.001872491216956123</v>
@@ -8979,7 +8979,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>329</v>
@@ -9029,7 +9029,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -9047,10 +9047,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K117">
         <v>0.001872491216956123</v>
@@ -9079,7 +9079,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>330</v>
@@ -9129,7 +9129,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>331</v>
@@ -9179,7 +9179,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -9197,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K120">
         <v>0.001792773850149446</v>
@@ -9229,7 +9229,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -9247,10 +9247,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K121">
         <v>0.001792773850149446</v>
@@ -9279,7 +9279,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>332</v>
@@ -9329,7 +9329,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>333</v>
@@ -9379,28 +9379,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K124">
         <v>0.001792773850149446</v>
@@ -9429,7 +9429,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -9447,10 +9447,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K125">
         <v>0.001792773850149446</v>
@@ -9479,25 +9479,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F126">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>334</v>
@@ -9529,25 +9529,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>335</v>
@@ -9579,28 +9579,28 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E128">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F128">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K128">
         <v>0.001709342797095281</v>
@@ -9629,25 +9629,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E129">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="F129">
-        <v>0.29</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>336</v>
@@ -9679,28 +9679,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="E130">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F130">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K130">
         <v>0.001709342797095281</v>
@@ -9729,28 +9729,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F131">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K131">
         <v>0.001709342797095281</v>
@@ -9779,28 +9779,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F132">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>434</v>
+        <v>105</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K132">
         <v>0.001709342797095281</v>
@@ -9829,25 +9829,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E133">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F133">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>337</v>
@@ -9879,25 +9879,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>338</v>
@@ -9929,25 +9929,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E135">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F135">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>339</v>
@@ -9979,28 +9979,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F136">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K136">
         <v>0.001621624962247241</v>
@@ -10029,25 +10029,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="E137">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F137">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>340</v>
@@ -10079,25 +10079,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E138">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F138">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>341</v>
@@ -10129,28 +10129,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
+        <v>25</v>
+      </c>
+      <c r="E139">
+        <v>0.92</v>
+      </c>
+      <c r="F139">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139">
         <v>200</v>
       </c>
-      <c r="E139">
-        <v>0.99</v>
-      </c>
-      <c r="F139">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>286</v>
-      </c>
       <c r="J139" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K139">
         <v>0.001621624962247241</v>
@@ -10179,25 +10179,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E140">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F140">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>342</v>
@@ -10229,25 +10229,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E141">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>343</v>
@@ -10279,25 +10279,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F142">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>344</v>
@@ -10329,28 +10329,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K143">
         <v>0.001621624962247241</v>
@@ -10379,25 +10379,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>345</v>
@@ -10429,13 +10429,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002672345821928228</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>346</v>
@@ -10479,13 +10479,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002672345821928228</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>347</v>
@@ -10529,7 +10529,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>348</v>
@@ -10579,7 +10579,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K148">
         <v>0.001528882676461871</v>
@@ -10629,7 +10629,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>349</v>
@@ -10679,7 +10679,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>350</v>
@@ -10729,7 +10729,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>351</v>
@@ -10779,7 +10779,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>352</v>
@@ -10829,7 +10829,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K153">
         <v>0.001528882676461871</v>
@@ -10879,7 +10879,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>353</v>
@@ -10929,7 +10929,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10947,10 +10947,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K155">
         <v>0.001528882676461871</v>
@@ -10979,7 +10979,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10997,10 +10997,10 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K156">
         <v>0.001528882676461871</v>
@@ -11029,7 +11029,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>354</v>
@@ -11079,7 +11079,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11097,10 +11097,10 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K158">
         <v>0.001430138789973569</v>
@@ -11129,7 +11129,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11147,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K159">
         <v>0.001430138789973569</v>
@@ -11179,7 +11179,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11197,10 +11197,10 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K160">
         <v>0.001430138789973569</v>
@@ -11229,7 +11229,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>355</v>
@@ -11279,7 +11279,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>356</v>
@@ -11329,7 +11329,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>357</v>
@@ -11379,7 +11379,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>358</v>
@@ -11429,25 +11429,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>359</v>
@@ -11479,7 +11479,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>360</v>
@@ -11529,28 +11529,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K167">
         <v>0.001430138789973569</v>
@@ -11579,7 +11579,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11597,10 +11597,10 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K168">
         <v>0.001430138789973569</v>
@@ -11629,7 +11629,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11647,10 +11647,10 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K169">
         <v>0.001430138789973569</v>
@@ -11679,7 +11679,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>361</v>
@@ -11729,7 +11729,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>362</v>
@@ -11779,7 +11779,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11797,10 +11797,10 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K172">
         <v>0.001324051237221925</v>
@@ -11829,7 +11829,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>363</v>
@@ -11879,7 +11879,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>364</v>
@@ -11929,7 +11929,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11979,7 +11979,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>366</v>
@@ -12029,25 +12029,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>367</v>
@@ -12079,7 +12079,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12097,10 +12097,10 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K178">
         <v>0.001324051237221925</v>
@@ -12129,25 +12129,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>368</v>
@@ -12179,25 +12179,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>369</v>
@@ -12229,25 +12229,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>370</v>
@@ -12279,22 +12279,22 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>15</v>
@@ -12329,7 +12329,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>372</v>
@@ -12379,7 +12379,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>373</v>
@@ -12429,7 +12429,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12447,10 +12447,10 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K185">
         <v>0.001324051237221925</v>
@@ -12479,25 +12479,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>374</v>
@@ -12529,28 +12529,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K187">
         <v>0.001324051237221925</v>
@@ -12579,25 +12579,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>375</v>
@@ -12629,25 +12629,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>376</v>
@@ -12679,25 +12679,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>377</v>
@@ -12729,25 +12729,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>378</v>
@@ -12779,22 +12779,22 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>13</v>
@@ -12829,25 +12829,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>380</v>
@@ -12879,7 +12879,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>381</v>
@@ -12929,25 +12929,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>382</v>
@@ -12979,25 +12979,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>383</v>
@@ -13029,25 +13029,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>384</v>
@@ -13079,28 +13079,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K198">
         <v>0.001208687883198454</v>
@@ -13129,25 +13129,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F199">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>385</v>
@@ -13179,7 +13179,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>386</v>
@@ -13229,25 +13229,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>387</v>
@@ -13279,25 +13279,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>388</v>
@@ -13329,25 +13329,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>389</v>
@@ -13379,25 +13379,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E204">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F204">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>390</v>
@@ -13429,25 +13429,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>391</v>
@@ -13479,19 +13479,19 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E206">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F206">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
@@ -13529,25 +13529,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>393</v>
@@ -13579,25 +13579,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E208">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F208">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>394</v>
@@ -13629,7 +13629,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>395</v>
@@ -13679,7 +13679,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13697,7 +13697,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>396</v>
@@ -13729,25 +13729,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>397</v>
@@ -13779,25 +13779,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>398</v>
@@ -13829,25 +13829,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>399</v>
@@ -13879,25 +13879,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>400</v>
@@ -13929,25 +13929,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>401</v>
@@ -13979,7 +13979,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13997,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>402</v>
@@ -14029,25 +14029,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F217">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>403</v>
@@ -14079,7 +14079,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14097,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>404</v>
@@ -14129,25 +14129,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E219">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F219">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>405</v>
@@ -14179,25 +14179,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>406</v>
@@ -14229,28 +14229,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E221">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F221">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K221">
         <v>0.001208687883198454</v>
@@ -14279,25 +14279,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>407</v>
@@ -14329,7 +14329,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14347,7 +14347,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>408</v>
@@ -14379,25 +14379,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>409</v>
@@ -14429,25 +14429,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F225">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>410</v>
@@ -14479,25 +14479,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>0.5</v>
+      </c>
+      <c r="F226">
+        <v>0.5</v>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226">
         <v>21</v>
-      </c>
-      <c r="E226">
-        <v>0.95</v>
-      </c>
-      <c r="F226">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226">
-        <v>52</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>411</v>
@@ -14529,25 +14529,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>412</v>
@@ -14579,25 +14579,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E228">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F228">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>413</v>
@@ -14629,25 +14629,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>414</v>
@@ -14679,28 +14679,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E230">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F230">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K230">
         <v>0.001208687883198454</v>
@@ -14729,25 +14729,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E231">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F231">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>415</v>
@@ -14779,25 +14779,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F232">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>416</v>
@@ -14829,25 +14829,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E233">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F233">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>417</v>
@@ -14879,25 +14879,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>418</v>
@@ -14929,25 +14929,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F235">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>419</v>
@@ -14979,25 +14979,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>420</v>
@@ -15029,25 +15029,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E237">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F237">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>421</v>
@@ -15079,25 +15079,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E238">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F238">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>422</v>
@@ -15129,25 +15129,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E239">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F239">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>423</v>
@@ -15179,25 +15179,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F240">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>424</v>
@@ -15229,25 +15229,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E241">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F241">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>425</v>
@@ -15279,25 +15279,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>426</v>
@@ -15329,25 +15329,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="E243">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F243">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>427</v>
@@ -15379,28 +15379,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K244">
         <v>0.001081083308164827</v>
@@ -15429,25 +15429,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F245">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>428</v>
@@ -15479,25 +15479,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E246">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F246">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>429</v>
@@ -15529,25 +15529,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E247">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F247">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>430</v>
@@ -15579,28 +15579,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E248">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F248">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K248">
         <v>0.001081083308164827</v>
@@ -15629,25 +15629,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E249">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F249">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>431</v>
@@ -15679,13 +15679,13 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E250">
         <v>0.92</v>
@@ -15697,10 +15697,10 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K250">
         <v>0.001081083308164827</v>
@@ -15729,25 +15729,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F251">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>432</v>
@@ -15779,25 +15779,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F252">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>433</v>
@@ -15829,25 +15829,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E253">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F253">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>434</v>
@@ -15879,25 +15879,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E254">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F254">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>435</v>
@@ -15929,25 +15929,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E255">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F255">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>436</v>
@@ -15979,25 +15979,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E256">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F256">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>437</v>
@@ -16029,25 +16029,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F257">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>438</v>
@@ -16079,25 +16079,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E258">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F258">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>439</v>
@@ -16129,25 +16129,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>440</v>
@@ -16179,25 +16179,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F260">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>441</v>
@@ -16229,25 +16229,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E261">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F261">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>442</v>
@@ -16279,25 +16279,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F262">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>443</v>
@@ -16329,25 +16329,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E263">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F263">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>444</v>
@@ -16379,28 +16379,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E264">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F264">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K264">
         <v>0.001081083308164827</v>
@@ -16429,13 +16429,13 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E265">
         <v>0.97</v>
@@ -16447,7 +16447,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>445</v>
@@ -16479,25 +16479,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E266">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F266">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>446</v>
@@ -16529,25 +16529,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E267">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F267">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>447</v>
@@ -16579,25 +16579,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E268">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F268">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>448</v>
@@ -16629,13 +16629,13 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E269">
         <v>0.98</v>
@@ -16647,7 +16647,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>449</v>
@@ -16679,28 +16679,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="E270">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F270">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K270">
         <v>0.001081083308164827</v>
@@ -16729,25 +16729,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>450</v>
@@ -16779,28 +16779,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="E272">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F272">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K272">
         <v>0.001081083308164827</v>
@@ -16829,7 +16829,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>451</v>
@@ -16879,25 +16879,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E274">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F274">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>452</v>
@@ -16929,25 +16929,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>453</v>
@@ -16979,25 +16979,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E276">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F276">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>454</v>
@@ -17029,25 +17029,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E277">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F277">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>455</v>
@@ -17079,25 +17079,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E278">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F278">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>456</v>
@@ -17129,25 +17129,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E279">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>457</v>
@@ -17179,28 +17179,28 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E280">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K280">
         <v>0.0009362456084780613</v>
@@ -17229,7 +17229,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>458</v>
@@ -17279,7 +17279,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>459</v>
@@ -17329,25 +17329,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>460</v>
@@ -17379,25 +17379,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>461</v>
@@ -17429,25 +17429,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E285">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>462</v>
@@ -17479,25 +17479,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F286">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>36</v>
+        <v>452</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>463</v>
@@ -17525,30 +17525,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0.001889633852360988</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287" t="b">
-        <v>0</v>
-      </c>
-      <c r="H287">
-        <v>50</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>464</v>
       </c>
@@ -17575,30 +17551,6 @@
       </c>
     </row>
     <row r="288" spans="1:17">
-      <c r="A288" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288">
-        <v>0.001889633852360988</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>12</v>
-      </c>
-      <c r="E288">
-        <v>0.92</v>
-      </c>
-      <c r="F288">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>452</v>
-      </c>
       <c r="J288" s="1" t="s">
         <v>465</v>
       </c>
@@ -17626,7 +17578,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K289">
         <v>0.0009362456084780613</v>
@@ -17652,7 +17604,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K290">
         <v>0.0009362456084780613</v>
@@ -17808,7 +17760,7 @@
     </row>
     <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K296">
         <v>0.0009362456084780613</v>
@@ -17912,7 +17864,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K300">
         <v>0.0009362456084780613</v>
@@ -18458,7 +18410,7 @@
     </row>
     <row r="321" spans="10:17">
       <c r="J321" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K321">
         <v>0.0009362456084780613</v>
@@ -18588,7 +18540,7 @@
     </row>
     <row r="326" spans="10:17">
       <c r="J326" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K326">
         <v>0.0009362456084780613</v>
@@ -18614,7 +18566,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K327">
         <v>0.0009362456084780613</v>
@@ -18666,7 +18618,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K329">
         <v>0.0009362456084780613</v>
@@ -20512,7 +20464,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K400">
         <v>0.0007644413382309356</v>
@@ -20642,7 +20594,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K405">
         <v>0.0007644413382309356</v>
@@ -20694,7 +20646,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K407">
         <v>0.0007644413382309356</v>
@@ -21318,7 +21270,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K431">
         <v>0.0007644413382309356</v>
@@ -22306,7 +22258,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K469">
         <v>0.0007644413382309356</v>
@@ -22488,7 +22440,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K476">
         <v>0.0007644413382309356</v>
@@ -22540,7 +22492,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K478">
         <v>0.0007644413382309356</v>
@@ -22774,7 +22726,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K487">
         <v>0.0007644413382309356</v>
@@ -22826,7 +22778,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K489">
         <v>0.0007644413382309356</v>
@@ -23450,7 +23402,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K513">
         <v>0.0005405416540824137</v>
@@ -23476,7 +23428,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K514">
         <v>0.0005405416540824137</v>
@@ -23502,7 +23454,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K515">
         <v>0.0005405416540824137</v>
@@ -23944,7 +23896,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K532">
         <v>0.0005405416540824137</v>
@@ -24542,7 +24494,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K555">
         <v>0.0005405416540824137</v>
@@ -26726,7 +26678,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K639">
         <v>0.0005405416540824137</v>
@@ -27090,7 +27042,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K653">
         <v>0.0005405416540824137</v>
@@ -27506,7 +27458,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K669">
         <v>0.0005405416540824137</v>
@@ -27896,7 +27848,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K684">
         <v>0.0005405416540824137</v>
@@ -28468,7 +28420,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K706">
         <v>0.0005405416540824137</v>
@@ -29300,7 +29252,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K738">
         <v>0.0005405416540824137</v>
@@ -30262,7 +30214,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K775">
         <v>0.0005405416540824137</v>
@@ -30548,7 +30500,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K786">
         <v>0.0005405416540824137</v>
@@ -30574,7 +30526,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K787">
         <v>0.0005405416540824137</v>
@@ -31328,7 +31280,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K816">
         <v>0.0005405416540824137</v>
@@ -31406,7 +31358,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K819">
         <v>0.0005405416540824137</v>
